--- a/biology/Zoologie/Cryptoblepharus_eximius/Cryptoblepharus_eximius.xlsx
+++ b/biology/Zoologie/Cryptoblepharus_eximius/Cryptoblepharus_eximius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryptoblepharus eximius est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryptoblepharus eximius est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Fidji[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Fidji.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Girard, 1858 "1857" : Descriptions of some new Reptiles, collected by the US. Exploring Expedition under the command of Capt. Charles Wilkes, U.S.N. Fourth Part. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 9, p. 195-199 (texte intégral).</t>
         </is>
